--- a/second_example.xlsx
+++ b/second_example.xlsx
@@ -898,7 +898,7 @@
     <numFmt numFmtId="173" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="174" formatCode="#\ ##0.00&quot; ₽&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1165,6 +1165,35 @@
       <charset val="204"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF1B130E"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1174,7 +1203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="52">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1582,6 +1611,127 @@
       <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="none">
@@ -2764,7 +2914,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="137">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3223,6 +3373,94 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="173" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="174" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="172" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -3634,8 +3872,8 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A5" colorId="64" zoomScale="76" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0" zoomScaleSheetLayoutView="76">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0" zoomScaleSheetLayoutView="76">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3920,10 +4158,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="103"/>
       <c r="N14" s="101"/>
-      <c r="O14" s="24">
-        <f>I14*M14</f>
-        <v>0</v>
-      </c>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" customHeight="1" ht="186">
       <c r="A15" s="86"/>
@@ -3940,10 +4175,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="103"/>
       <c r="N15" s="101"/>
-      <c r="O15" s="24">
-        <f>I15*M15</f>
-        <v>0</v>
-      </c>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" customHeight="1" ht="186">
       <c r="A16" s="96"/>
@@ -3960,10 +4192,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="103"/>
       <c r="N16" s="101"/>
-      <c r="O16" s="24">
-        <f>I16*M16</f>
-        <v>0</v>
-      </c>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" customHeight="1" ht="186">
       <c r="A17" s="96"/>
@@ -3980,10 +4209,7 @@
       <c r="L17" s="98"/>
       <c r="M17" s="103"/>
       <c r="N17" s="101"/>
-      <c r="O17" s="24">
-        <f>I17*M17</f>
-        <v>0</v>
-      </c>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" customHeight="1" ht="210">
       <c r="A18" s="96"/>
@@ -4000,10 +4226,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="103"/>
       <c r="N18" s="101"/>
-      <c r="O18" s="24">
-        <f>I18*M18</f>
-        <v>0</v>
-      </c>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" customHeight="1" ht="213">
       <c r="A19" s="86"/>
@@ -4020,10 +4243,7 @@
       <c r="L19" s="98"/>
       <c r="M19" s="103"/>
       <c r="N19" s="101"/>
-      <c r="O19" s="24">
-        <f>I19*M19</f>
-        <v>0</v>
-      </c>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" customHeight="1" ht="186">
       <c r="A20" s="96"/>
@@ -4040,10 +4260,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="103"/>
       <c r="N20" s="101"/>
-      <c r="O20" s="24">
-        <f>I20*M20</f>
-        <v>0</v>
-      </c>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" customHeight="1" ht="186">
       <c r="A21" s="96"/>
@@ -4060,10 +4277,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="103"/>
       <c r="N21" s="101"/>
-      <c r="O21" s="24">
-        <f>I21*M21</f>
-        <v>0</v>
-      </c>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" customHeight="1" ht="186">
       <c r="A22" s="96"/>
@@ -4080,10 +4294,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="103"/>
       <c r="N22" s="101"/>
-      <c r="O22" s="24">
-        <f>I22*M22</f>
-        <v>0</v>
-      </c>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" customHeight="1" ht="186">
       <c r="A23" s="96"/>
@@ -4494,59 +4705,89 @@
       <c r="O46" s="24"/>
     </row>
     <row r="47" customHeight="1" ht="186">
-      <c r="A47" s="86"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="113"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="122"/>
       <c r="O47" s="24"/>
     </row>
     <row r="48" customHeight="1" ht="75">
-      <c r="A48" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="61"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="128"/>
     </row>
     <row r="49" customHeight="1" ht="42">
-      <c r="A49" s="57"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="134"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="135"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="134"/>
     </row>
     <row r="51">
-      <c r="N51" s="64"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="134"/>
     </row>
     <row r="58" ht="33">
       <c r="A58" s="1"/>
@@ -4557,7 +4798,7 @@
       <c r="M59" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="20">
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:G5"/>
@@ -4578,14 +4819,6 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="M49:N49"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.786805555555556" bottom="0.39375" header="0.315277777777778" footer="0.315277777777778"/>
